--- a/Research/2018/Mousepad Analysis/product price estimator.xlsx
+++ b/Research/2018/Mousepad Analysis/product price estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E000705\Documents\Sameer\UrbanSkip\my repo\trunk\Research\2018\Mousepad Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{618FC36A-0E52-46C8-9547-6BAFEA2D25FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55CCBE75-B838-481C-B381-DA8D189C0E3B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{0F7CA485-9E80-49FC-96F7-F8537B7DBEAC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>S.No</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Order medium</t>
+  </si>
+  <si>
+    <t>AMZ-FED</t>
+  </si>
+  <si>
+    <t>AMZ-SHP</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1037,30 +1043,30 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <f>C2/2</f>
-        <v>0.5</v>
+        <f>C2*30/100</f>
+        <v>0.3</v>
       </c>
       <c r="F2" s="1">
         <f>SUM(C2:E2)*70</f>
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G2" s="1">
-        <v>349</v>
+        <v>449</v>
       </c>
       <c r="H2" s="1">
-        <f>(20/100)*(G2-F2)</f>
-        <v>20.8</v>
+        <f>G2*28/100</f>
+        <v>125.72</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1">
         <f>G2-F2-H2-I2</f>
-        <v>53.2</v>
+        <v>22.28</v>
       </c>
       <c r="K2" s="1">
         <f>(J2/F2)*100</f>
-        <v>21.714285714285715</v>
+        <v>9.6450216450216448</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1068,38 +1074,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <f>C3*30/100</f>
+        <v>0.3</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E5" si="0">C3/2</f>
-        <v>0.5</v>
+        <f>C3*30/100</f>
+        <v>0.3</v>
       </c>
       <c r="F3" s="1">
         <f>SUM(C3:E3)*70</f>
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <f>G3*28/100</f>
+        <v>78.400000000000006</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1">
         <f>G3-F3-H3-I3</f>
-        <v>104</v>
+        <v>19.599999999999994</v>
       </c>
       <c r="K3" s="1">
         <f>(J3/F3)*100</f>
-        <v>42.448979591836732</v>
+        <v>17.499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1116,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E5" si="0">C4/2</f>
         <v>0.35</v>
       </c>
       <c r="F4" s="1">
